--- a/InputData/trans/VPaEC/Veh Prices and Embedded Carbon.xlsx
+++ b/InputData/trans/VPaEC/Veh Prices and Embedded Carbon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="25875" windowHeight="13095"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="25872" windowHeight="13092"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Table 8-8" sheetId="5" r:id="rId5"/>
     <sheet name="VPaEC-ECpV" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="512">
   <si>
     <t>Stock# 2659892015 Peterbilt 579 </t>
   </si>
@@ -1531,6 +1531,30 @@
   </si>
   <si>
     <t>LDVs by the ratio of the average prices of these vehicle types.</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>The figures from the Center for Automotive Research come from a 2010 Automotive Yearbook</t>
+  </si>
+  <si>
+    <t>and therefore are likely in 2010 dollars.</t>
+  </si>
+  <si>
+    <t>The figures from TruckerToTrucker were collected in early 2015 and therefore use 2015</t>
+  </si>
+  <si>
+    <t>dollars, but because we don't have a 2015 annual CPI-U figure available yet, we use 2014.</t>
+  </si>
+  <si>
+    <t>2010 to 2012, for Center for Automotive Research</t>
+  </si>
+  <si>
+    <t>2014 to 2012, for TruckerToTrucker</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1565,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +1604,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1595,7 +1642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1603,13 +1650,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1642,11 +1741,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
+    <cellStyle name="Footnotes: top row" xfId="8"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="7"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1945,27 +2051,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>455</v>
       </c>
@@ -1973,57 +2079,57 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>465</v>
       </c>
@@ -2033,79 +2139,125 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>495</v>
       </c>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>496</v>
       </c>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>492</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="B41" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2126,14 +2278,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2296,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2307,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2318,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2329,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2340,7 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2351,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2210,7 +2362,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2221,7 +2373,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2232,7 +2384,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2395,7 @@
         <v>131175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2406,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2417,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2428,7 @@
         <v>127516</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2439,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2450,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2309,7 +2461,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2472,7 @@
         <v>128530</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2331,7 +2483,7 @@
         <v>132698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2342,7 +2494,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2353,7 +2505,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2364,7 +2516,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2527,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2386,7 +2538,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2549,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2560,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2419,7 +2571,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2582,7 @@
         <v>128149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2441,7 +2593,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2452,7 +2604,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2463,7 +2615,7 @@
         <v>138800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +2626,7 @@
         <v>124167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2485,7 +2637,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2496,7 +2648,7 @@
         <v>173500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2507,7 +2659,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2518,7 +2670,7 @@
         <v>124791</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2529,7 +2681,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2540,7 +2692,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2551,7 +2703,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2714,7 @@
         <v>125046</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2573,7 +2725,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2736,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2747,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2606,7 +2758,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2769,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -2628,7 +2780,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2639,7 +2791,7 @@
         <v>144900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2650,7 +2802,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2661,7 +2813,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2824,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2683,7 +2835,7 @@
         <v>144750</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2694,7 +2846,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2857,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2716,7 +2868,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2879,7 @@
         <v>134675</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2738,7 +2890,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2901,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2760,7 +2912,7 @@
         <v>112520</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -2771,7 +2923,7 @@
         <v>129950</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2934,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2793,7 +2945,7 @@
         <v>126576</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2804,7 +2956,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2815,7 +2967,7 @@
         <v>132700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2826,7 +2978,7 @@
         <v>121850</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -2837,7 +2989,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -2848,7 +3000,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -2859,7 +3011,7 @@
         <v>118900</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -2870,7 +3022,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +3033,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -2892,7 +3044,7 @@
         <v>120874</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -2903,7 +3055,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -2914,7 +3066,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2925,7 +3077,7 @@
         <v>140759</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -2936,7 +3088,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -2947,7 +3099,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -2958,7 +3110,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -2969,7 +3121,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -2980,7 +3132,7 @@
         <v>137281</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -2991,7 +3143,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -3002,7 +3154,7 @@
         <v>133450</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3013,7 +3165,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -3024,7 +3176,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -3035,7 +3187,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3046,7 +3198,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -3057,7 +3209,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3068,7 +3220,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -3079,7 +3231,7 @@
         <v>126948</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -3090,7 +3242,7 @@
         <v>128950</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -3101,7 +3253,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3112,7 +3264,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -3123,7 +3275,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3134,7 +3286,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -3145,7 +3297,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3156,7 +3308,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -3167,7 +3319,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -3178,7 +3330,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -3189,7 +3341,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -3200,7 +3352,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -3211,7 +3363,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -3222,7 +3374,7 @@
         <v>142008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -3233,7 +3385,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3244,7 +3396,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -3255,7 +3407,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -3266,7 +3418,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -3277,7 +3429,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -3288,7 +3440,7 @@
         <v>140060</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -3299,7 +3451,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -3310,7 +3462,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3321,7 +3473,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -3332,7 +3484,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -3343,7 +3495,7 @@
         <v>139932</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -3354,7 +3506,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -3365,7 +3517,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>135</v>
       </c>
@@ -3376,7 +3528,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -3387,7 +3539,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -3398,7 +3550,7 @@
         <v>143314</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -3409,7 +3561,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -3420,7 +3572,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -3431,7 +3583,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -3442,7 +3594,7 @@
         <v>144214</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3453,7 +3605,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -3464,7 +3616,7 @@
         <v>133745</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -3475,7 +3627,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -3486,7 +3638,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -3497,7 +3649,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -3508,7 +3660,7 @@
         <v>152980</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -3519,7 +3671,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>150</v>
       </c>
@@ -3530,7 +3682,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -3541,7 +3693,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -3552,7 +3704,7 @@
         <v>130086</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3563,7 +3715,7 @@
         <v>128295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -3574,7 +3726,7 @@
         <v>128397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3585,7 +3737,7 @@
         <v>130746</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>157</v>
       </c>
@@ -3596,7 +3748,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>158</v>
       </c>
@@ -3607,7 +3759,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -3618,7 +3770,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -3629,7 +3781,7 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -3640,7 +3792,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -3651,7 +3803,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -3662,7 +3814,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -3673,7 +3825,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -3684,7 +3836,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -3695,7 +3847,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -3706,7 +3858,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -3717,7 +3869,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -3728,7 +3880,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>170</v>
       </c>
@@ -3739,7 +3891,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -3750,7 +3902,7 @@
         <v>127078</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -3761,7 +3913,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -3772,7 +3924,7 @@
         <v>117149</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -3783,7 +3935,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -3794,7 +3946,7 @@
         <v>136219</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -3805,7 +3957,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -3816,7 +3968,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -3827,7 +3979,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -3838,7 +3990,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -3849,7 +4001,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -3860,7 +4012,7 @@
         <v>148677</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -3871,7 +4023,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -3882,7 +4034,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>185</v>
       </c>
@@ -3893,7 +4045,7 @@
         <v>131683</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -3904,7 +4056,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -3915,7 +4067,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -3926,7 +4078,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -3937,7 +4089,7 @@
         <v>130881</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -3948,7 +4100,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -3959,7 +4111,7 @@
         <v>156800</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -3970,7 +4122,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -3981,7 +4133,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>194</v>
       </c>
@@ -3992,7 +4144,7 @@
         <v>129712</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>195</v>
       </c>
@@ -4003,7 +4155,7 @@
         <v>136345</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>196</v>
       </c>
@@ -4014,7 +4166,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -4025,7 +4177,7 @@
         <v>127111</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -4036,7 +4188,7 @@
         <v>137454</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -4047,7 +4199,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -4058,7 +4210,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>116</v>
       </c>
@@ -4069,7 +4221,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>202</v>
       </c>
@@ -4080,7 +4232,7 @@
         <v>130256</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -4091,7 +4243,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -4102,7 +4254,7 @@
         <v>133409</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -4113,7 +4265,7 @@
         <v>138957</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -4124,7 +4276,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -4135,7 +4287,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -4146,7 +4298,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -4157,7 +4309,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -4168,7 +4320,7 @@
         <v>133801</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -4179,7 +4331,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -4190,7 +4342,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -4201,7 +4353,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -4212,7 +4364,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -4223,7 +4375,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -4234,7 +4386,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -4245,7 +4397,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -4256,7 +4408,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -4267,7 +4419,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -4278,7 +4430,7 @@
         <v>135500</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -4289,7 +4441,7 @@
         <v>149592</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -4300,7 +4452,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -4311,7 +4463,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -4322,7 +4474,7 @@
         <v>131450</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -4333,7 +4485,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -4344,7 +4496,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -4355,7 +4507,7 @@
         <v>131369</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -4366,7 +4518,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -4377,7 +4529,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -4388,7 +4540,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -4399,7 +4551,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -4410,7 +4562,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -4421,7 +4573,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -4432,7 +4584,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -4443,7 +4595,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -4454,7 +4606,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -4465,7 +4617,7 @@
         <v>132551</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -4476,7 +4628,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -4487,7 +4639,7 @@
         <v>147838</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -4498,7 +4650,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -4509,7 +4661,7 @@
         <v>127513</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -4520,7 +4672,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -4531,7 +4683,7 @@
         <v>151734</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -4542,7 +4694,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>246</v>
       </c>
@@ -4553,7 +4705,7 @@
         <v>174105</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -4564,7 +4716,7 @@
         <v>140253</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -4575,7 +4727,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -4586,7 +4738,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>250</v>
       </c>
@@ -4597,7 +4749,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>251</v>
       </c>
@@ -4608,7 +4760,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -4619,7 +4771,7 @@
         <v>207200</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -4630,7 +4782,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>254</v>
       </c>
@@ -4641,7 +4793,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -4652,7 +4804,7 @@
         <v>124526</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -4663,7 +4815,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -4674,7 +4826,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>257</v>
       </c>
@@ -4685,7 +4837,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4696,7 +4848,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>259</v>
       </c>
@@ -4707,7 +4859,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4718,7 +4870,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>261</v>
       </c>
@@ -4729,7 +4881,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -4740,7 +4892,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -4751,7 +4903,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -4762,7 +4914,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -4773,7 +4925,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>265</v>
       </c>
@@ -4784,7 +4936,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4947,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -4806,7 +4958,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -4817,7 +4969,7 @@
         <v>127740</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>269</v>
       </c>
@@ -4828,7 +4980,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>270</v>
       </c>
@@ -4839,7 +4991,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>271</v>
       </c>
@@ -4862,14 +5014,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -4880,7 +5032,7 @@
         <v>142405</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -4891,7 +5043,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -4902,7 +5054,7 @@
         <v>125950</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -4913,7 +5065,7 @@
         <v>142988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -4924,7 +5076,7 @@
         <v>136835</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -4935,7 +5087,7 @@
         <v>145650</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -4946,7 +5098,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -4957,7 +5109,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -4968,7 +5120,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -4979,7 +5131,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -4990,7 +5142,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -5001,7 +5153,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -5012,7 +5164,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -5023,7 +5175,7 @@
         <v>148275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -5034,7 +5186,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -5045,7 +5197,7 @@
         <v>140608</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>295</v>
       </c>
@@ -5056,7 +5208,7 @@
         <v>165536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -5067,7 +5219,7 @@
         <v>151764</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>297</v>
       </c>
@@ -5078,7 +5230,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>298</v>
       </c>
@@ -5089,7 +5241,7 @@
         <v>165718</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -5100,7 +5252,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -5111,7 +5263,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -5122,7 +5274,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -5133,7 +5285,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>303</v>
       </c>
@@ -5144,7 +5296,7 @@
         <v>141750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -5155,7 +5307,7 @@
         <v>145934</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -5166,7 +5318,7 @@
         <v>141150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>306</v>
       </c>
@@ -5177,7 +5329,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>307</v>
       </c>
@@ -5188,7 +5340,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -5199,7 +5351,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -5210,7 +5362,7 @@
         <v>140500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -5221,7 +5373,7 @@
         <v>144775</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>311</v>
       </c>
@@ -5232,7 +5384,7 @@
         <v>147555</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>312</v>
       </c>
@@ -5243,7 +5395,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5254,7 +5406,7 @@
         <v>131211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -5265,7 +5417,7 @@
         <v>147500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -5276,7 +5428,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -5287,7 +5439,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -5298,7 +5450,7 @@
         <v>155900</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>318</v>
       </c>
@@ -5309,7 +5461,7 @@
         <v>137500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>319</v>
       </c>
@@ -5320,7 +5472,7 @@
         <v>136483</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -5331,7 +5483,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>321</v>
       </c>
@@ -5342,7 +5494,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>322</v>
       </c>
@@ -5353,7 +5505,7 @@
         <v>127995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>323</v>
       </c>
@@ -5364,7 +5516,7 @@
         <v>145385</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>324</v>
       </c>
@@ -5375,7 +5527,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -5386,7 +5538,7 @@
         <v>140460</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>326</v>
       </c>
@@ -5397,7 +5549,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>327</v>
       </c>
@@ -5408,7 +5560,7 @@
         <v>137468</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -5419,7 +5571,7 @@
         <v>148351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -5430,7 +5582,7 @@
         <v>153543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -5441,7 +5593,7 @@
         <v>147429</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>331</v>
       </c>
@@ -5452,7 +5604,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -5463,7 +5615,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>333</v>
       </c>
@@ -5474,7 +5626,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -5485,7 +5637,7 @@
         <v>141245</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>335</v>
       </c>
@@ -5496,7 +5648,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>332</v>
       </c>
@@ -5507,7 +5659,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -5518,7 +5670,7 @@
         <v>146800</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>337</v>
       </c>
@@ -5529,7 +5681,7 @@
         <v>141898</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>338</v>
       </c>
@@ -5540,7 +5692,7 @@
         <v>147780</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>339</v>
       </c>
@@ -5551,7 +5703,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>340</v>
       </c>
@@ -5562,7 +5714,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>341</v>
       </c>
@@ -5573,7 +5725,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>342</v>
       </c>
@@ -5584,7 +5736,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>343</v>
       </c>
@@ -5595,7 +5747,7 @@
         <v>149391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>344</v>
       </c>
@@ -5606,7 +5758,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>345</v>
       </c>
@@ -5617,7 +5769,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>320</v>
       </c>
@@ -5628,7 +5780,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>321</v>
       </c>
@@ -5639,7 +5791,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -5650,7 +5802,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -5661,7 +5813,7 @@
         <v>149285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -5672,7 +5824,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -5683,7 +5835,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>332</v>
       </c>
@@ -5694,7 +5846,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -5705,7 +5857,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>351</v>
       </c>
@@ -5716,7 +5868,7 @@
         <v>153814</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>352</v>
       </c>
@@ -5727,7 +5879,7 @@
         <v>148613</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -5738,7 +5890,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>354</v>
       </c>
@@ -5749,7 +5901,7 @@
         <v>134900</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>355</v>
       </c>
@@ -5760,7 +5912,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>356</v>
       </c>
@@ -5771,7 +5923,7 @@
         <v>151674</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -5782,7 +5934,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>358</v>
       </c>
@@ -5793,7 +5945,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -5804,7 +5956,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>360</v>
       </c>
@@ -5815,7 +5967,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>332</v>
       </c>
@@ -5826,7 +5978,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -5837,7 +5989,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>362</v>
       </c>
@@ -5848,7 +6000,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>339</v>
       </c>
@@ -5859,7 +6011,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>363</v>
       </c>
@@ -5870,7 +6022,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>364</v>
       </c>
@@ -5881,7 +6033,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>365</v>
       </c>
@@ -5892,7 +6044,7 @@
         <v>132993</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>366</v>
       </c>
@@ -5903,7 +6055,7 @@
         <v>150929</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>367</v>
       </c>
@@ -5914,7 +6066,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>344</v>
       </c>
@@ -5925,7 +6077,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>368</v>
       </c>
@@ -5936,7 +6088,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>369</v>
       </c>
@@ -5947,7 +6099,7 @@
         <v>136908</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -5958,7 +6110,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>370</v>
       </c>
@@ -5969,7 +6121,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -5980,7 +6132,7 @@
         <v>147311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -5991,7 +6143,7 @@
         <v>151500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>373</v>
       </c>
@@ -6002,7 +6154,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>374</v>
       </c>
@@ -6013,7 +6165,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -6024,7 +6176,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>375</v>
       </c>
@@ -6035,7 +6187,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>376</v>
       </c>
@@ -6046,7 +6198,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>377</v>
       </c>
@@ -6057,7 +6209,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>378</v>
       </c>
@@ -6068,7 +6220,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>379</v>
       </c>
@@ -6079,7 +6231,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>380</v>
       </c>
@@ -6090,7 +6242,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>381</v>
       </c>
@@ -6101,7 +6253,7 @@
         <v>143529</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>339</v>
       </c>
@@ -6112,7 +6264,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>342</v>
       </c>
@@ -6123,7 +6275,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>382</v>
       </c>
@@ -6134,7 +6286,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>383</v>
       </c>
@@ -6145,7 +6297,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>346</v>
       </c>
@@ -6156,7 +6308,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>384</v>
       </c>
@@ -6167,7 +6319,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>385</v>
       </c>
@@ -6178,7 +6330,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>342</v>
       </c>
@@ -6189,7 +6341,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>386</v>
       </c>
@@ -6200,7 +6352,7 @@
         <v>148900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -6211,7 +6363,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -6222,7 +6374,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>387</v>
       </c>
@@ -6233,7 +6385,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>388</v>
       </c>
@@ -6244,7 +6396,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -6255,7 +6407,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>389</v>
       </c>
@@ -6266,7 +6418,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>390</v>
       </c>
@@ -6277,7 +6429,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>391</v>
       </c>
@@ -6288,7 +6440,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -6299,7 +6451,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>393</v>
       </c>
@@ -6310,7 +6462,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>394</v>
       </c>
@@ -6321,7 +6473,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>395</v>
       </c>
@@ -6332,7 +6484,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>396</v>
       </c>
@@ -6343,7 +6495,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>397</v>
       </c>
@@ -6354,7 +6506,7 @@
         <v>136581</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>344</v>
       </c>
@@ -6365,7 +6517,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>339</v>
       </c>
@@ -6376,7 +6528,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>346</v>
       </c>
@@ -6387,7 +6539,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>398</v>
       </c>
@@ -6398,7 +6550,7 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -6409,7 +6561,7 @@
         <v>156236</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>400</v>
       </c>
@@ -6420,7 +6572,7 @@
         <v>151299</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>401</v>
       </c>
@@ -6431,7 +6583,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>402</v>
       </c>
@@ -6442,7 +6594,7 @@
         <v>143100</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>403</v>
       </c>
@@ -6453,7 +6605,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>353</v>
       </c>
@@ -6464,7 +6616,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>342</v>
       </c>
@@ -6475,7 +6627,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>342</v>
       </c>
@@ -6486,7 +6638,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>320</v>
       </c>
@@ -6497,7 +6649,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>353</v>
       </c>
@@ -6508,7 +6660,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>404</v>
       </c>
@@ -6519,7 +6671,7 @@
         <v>141690</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>401</v>
       </c>
@@ -6530,7 +6682,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>346</v>
       </c>
@@ -6541,7 +6693,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -6552,7 +6704,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>406</v>
       </c>
@@ -6563,7 +6715,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>407</v>
       </c>
@@ -6574,7 +6726,7 @@
         <v>136196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -6585,7 +6737,7 @@
         <v>144850</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>409</v>
       </c>
@@ -6596,7 +6748,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>410</v>
       </c>
@@ -6607,7 +6759,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>411</v>
       </c>
@@ -6618,7 +6770,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>412</v>
       </c>
@@ -6629,7 +6781,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>413</v>
       </c>
@@ -6640,7 +6792,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -6651,7 +6803,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -6662,7 +6814,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>414</v>
       </c>
@@ -6673,7 +6825,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>415</v>
       </c>
@@ -6684,7 +6836,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -6695,7 +6847,7 @@
         <v>141034</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>417</v>
       </c>
@@ -6706,7 +6858,7 @@
         <v>145900</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>418</v>
       </c>
@@ -6717,7 +6869,7 @@
         <v>148191</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>346</v>
       </c>
@@ -6728,7 +6880,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>419</v>
       </c>
@@ -6739,7 +6891,7 @@
         <v>150499</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>320</v>
       </c>
@@ -6750,7 +6902,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -6761,7 +6913,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>420</v>
       </c>
@@ -6772,7 +6924,7 @@
         <v>152753</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>332</v>
       </c>
@@ -6783,7 +6935,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>342</v>
       </c>
@@ -6794,7 +6946,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>421</v>
       </c>
@@ -6805,7 +6957,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>422</v>
       </c>
@@ -6816,7 +6968,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>423</v>
       </c>
@@ -6827,7 +6979,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>424</v>
       </c>
@@ -6838,7 +6990,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>425</v>
       </c>
@@ -6849,7 +7001,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>426</v>
       </c>
@@ -6860,7 +7012,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>427</v>
       </c>
@@ -6871,7 +7023,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>428</v>
       </c>
@@ -6882,7 +7034,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>429</v>
       </c>
@@ -6893,7 +7045,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>430</v>
       </c>
@@ -6904,7 +7056,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>431</v>
       </c>
@@ -6915,7 +7067,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>432</v>
       </c>
@@ -6926,7 +7078,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>433</v>
       </c>
@@ -6937,7 +7089,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -6948,7 +7100,7 @@
         <v>140990</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>339</v>
       </c>
@@ -6959,7 +7111,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>435</v>
       </c>
@@ -6970,7 +7122,7 @@
         <v>146850</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>436</v>
       </c>
@@ -6981,7 +7133,7 @@
         <v>142667</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>437</v>
       </c>
@@ -6992,7 +7144,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>438</v>
       </c>
@@ -7003,7 +7155,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>439</v>
       </c>
@@ -7014,7 +7166,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>440</v>
       </c>
@@ -7025,7 +7177,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>441</v>
       </c>
@@ -7036,7 +7188,7 @@
         <v>142888</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>442</v>
       </c>
@@ -7047,7 +7199,7 @@
         <v>154160</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>443</v>
       </c>
@@ -7058,7 +7210,7 @@
         <v>148945</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>444</v>
       </c>
@@ -7069,7 +7221,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>339</v>
       </c>
@@ -7080,7 +7232,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>332</v>
       </c>
@@ -7091,7 +7243,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>445</v>
       </c>
@@ -7102,7 +7254,7 @@
         <v>148658</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>446</v>
       </c>
@@ -7113,7 +7265,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>447</v>
       </c>
@@ -7124,7 +7276,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>448</v>
       </c>
@@ -7135,7 +7287,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>353</v>
       </c>
@@ -7146,7 +7298,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>449</v>
       </c>
@@ -7157,7 +7309,7 @@
         <v>143415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -7168,7 +7320,7 @@
         <v>143625</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>451</v>
       </c>
@@ -7179,7 +7331,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>346</v>
       </c>
@@ -7190,7 +7342,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>452</v>
       </c>
@@ -7201,7 +7353,7 @@
         <v>144910</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>453</v>
       </c>
@@ -7212,7 +7364,7 @@
         <v>153260</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>454</v>
       </c>
@@ -7237,11 +7389,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7260,7 +7412,8 @@
         <v>471</v>
       </c>
       <c r="B2" s="10">
-        <v>23186</v>
+        <f>23186*About!A40</f>
+        <v>24461.23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -7274,8 +7427,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <f>AVERAGE('Conventional Daycab Trucks'!C1:C247,'Conventional Sleeper Trucks'!C1:C214)</f>
-        <v>136898.05856832972</v>
+        <f>AVERAGE('Conventional Daycab Trucks'!C1:C247,'Conventional Sleeper Trucks'!C1:C214)*About!A41</f>
+        <v>132928.01486984815</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7333,12 +7486,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="12.28515625" customWidth="1"/>
+    <col min="1" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>479</v>
       </c>
@@ -7369,7 +7522,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>488</v>
       </c>
@@ -7398,7 +7551,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>489</v>
       </c>
@@ -7427,7 +7580,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>490</v>
       </c>
@@ -7456,7 +7609,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>491</v>
       </c>
@@ -7499,11 +7652,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7538,7 +7691,7 @@
       </c>
       <c r="C3" s="11">
         <f>B2*('VPaEC-BAVP'!C3/'VPaEC-BAVP'!B2)</f>
-        <v>38.023958301563155</v>
+        <v>34.996458304092727</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/VPaEC/Veh Prices and Embedded Carbon.xlsx
+++ b/InputData/trans/VPaEC/Veh Prices and Embedded Carbon.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="25872" windowHeight="13092"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="25875" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Conventional Daycab Trucks" sheetId="2" r:id="rId2"/>
     <sheet name="Conventional Sleeper Trucks" sheetId="3" r:id="rId3"/>
-    <sheet name="VPaEC-BAVP" sheetId="4" r:id="rId4"/>
-    <sheet name="Table 8-8" sheetId="5" r:id="rId5"/>
-    <sheet name="VPaEC-ECpV" sheetId="6" r:id="rId6"/>
+    <sheet name="Passenger Aircraft" sheetId="7" r:id="rId4"/>
+    <sheet name="Motorbikes" sheetId="9" r:id="rId5"/>
+    <sheet name="VPaEC-BAVP" sheetId="4" r:id="rId6"/>
+    <sheet name="Table 8-8" sheetId="5" r:id="rId7"/>
+    <sheet name="VPaEC-ECpV" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="572">
   <si>
     <t>Stock# 2659892015 Peterbilt 579 </t>
   </si>
@@ -1506,9 +1508,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Data in this variable are only available for passenger LDVs and freight HDVs.</t>
-  </si>
-  <si>
     <t>Vehicle types for which there are no data in this variable (or in one of the other essential variables</t>
   </si>
   <si>
@@ -1527,12 +1526,6 @@
     <t>Embedded carbon in passenger LDVs</t>
   </si>
   <si>
-    <t>We estimate embedded carbon in freight HDVs by scaling up the embedded carbon in passenger</t>
-  </si>
-  <si>
-    <t>LDVs by the ratio of the average prices of these vehicle types.</t>
-  </si>
-  <si>
     <t>Currency Year</t>
   </si>
   <si>
@@ -1555,15 +1548,205 @@
   </si>
   <si>
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>Passenger aircraft are typically sold at a steep discount (50% or more) relative to the list price.</t>
+  </si>
+  <si>
+    <t>Therefore, the market price is a better estimate of the actual purchase cost of an airplane.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>2012 List Price</t>
+  </si>
+  <si>
+    <t>2012 Market Price</t>
+  </si>
+  <si>
+    <t>Boeing 737-800</t>
+  </si>
+  <si>
+    <t>Boeing 737-900ER</t>
+  </si>
+  <si>
+    <t>Boeing 777-300ER</t>
+  </si>
+  <si>
+    <t>Airbus A319</t>
+  </si>
+  <si>
+    <t>Airbus A320</t>
+  </si>
+  <si>
+    <t>Airbus A330-200</t>
+  </si>
+  <si>
+    <t>For lack of data on fleet compositions (and market prices of additional models), we</t>
+  </si>
+  <si>
+    <t>will take a simple average of the market prices of aircraft included in this table,</t>
+  </si>
+  <si>
+    <t>which at least puts us in the right ballpark for aircraft pricing.</t>
+  </si>
+  <si>
+    <t>Passenger aircraft prices</t>
+  </si>
+  <si>
+    <t>Daniel Michaels, The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>The Secret Price of a Jet Airliner</t>
+  </si>
+  <si>
+    <t>http://www.wsj.com/articles/SB10001424052702303649504577494862829051078</t>
+  </si>
+  <si>
+    <t>Data in this variable are only available for some vehicle types.</t>
+  </si>
+  <si>
+    <t>We estimate the cost of freight aircraft by assuming they are the same as passenger aircraft.</t>
+  </si>
+  <si>
+    <t>2013 to 2012, for American Public Transit Association</t>
+  </si>
+  <si>
+    <t>Passenger HDV (bus) prices</t>
+  </si>
+  <si>
+    <t>American Public Transit Association</t>
+  </si>
+  <si>
+    <t>2015 Public Transportation Fact Book Appendix A: Historical Tables</t>
+  </si>
+  <si>
+    <t>Table 26</t>
+  </si>
+  <si>
+    <t>http://www.apta.com/resources/statistics/Documents/FactBook/2015-APTA-Fact-Book-Appendix-A.xls</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Example New 2017 Motorcycles Selected by Popular Mechanics Magazine (U.S. market)</t>
+  </si>
+  <si>
+    <t>SCR 950</t>
+  </si>
+  <si>
+    <t>Vanvan 200</t>
+  </si>
+  <si>
+    <t>Street Cup</t>
+  </si>
+  <si>
+    <t>CBR500R</t>
+  </si>
+  <si>
+    <t>Kawasaki</t>
+  </si>
+  <si>
+    <t>Z125 Pro</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Octane</t>
+  </si>
+  <si>
+    <t>Ducati</t>
+  </si>
+  <si>
+    <t>SuperSport</t>
+  </si>
+  <si>
+    <t>Moto Guzzi</t>
+  </si>
+  <si>
+    <t>V7 Stone II</t>
+  </si>
+  <si>
+    <t>Harley-Davidson</t>
+  </si>
+  <si>
+    <t>Road Glide</t>
+  </si>
+  <si>
+    <t>G310R</t>
+  </si>
+  <si>
+    <t>Motorbike prices</t>
+  </si>
+  <si>
+    <t>Ben Steward, Popular Mechanics Magazine</t>
+  </si>
+  <si>
+    <t>The 10 Best Buys in Motorcycles for 2017</t>
+  </si>
+  <si>
+    <t>http://www.popularmechanics.com/cars/motorcycles/g2309/best-motorcycle-buys/</t>
+  </si>
+  <si>
+    <t>Rail (locomotive) prices</t>
+  </si>
+  <si>
+    <t>Bob Tita and James Hagerty, The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>http://www.wsj.com/articles/caterpillar-falls-behind-ge-in-locomotives-race-1405291739</t>
+  </si>
+  <si>
+    <t>Caterpillar Falls Behind GE in Locomotives Race</t>
+  </si>
+  <si>
+    <t>Paragraph 5</t>
+  </si>
+  <si>
+    <t>For rail, we only include the cost of the locomotive, because efficiency shifts due to policies will only</t>
+  </si>
+  <si>
+    <t>change the price of the locomotive, not the price of the towed rail cars.  We make no distinction</t>
+  </si>
+  <si>
+    <t>between locomotives that pull passenger or freight cars.</t>
+  </si>
+  <si>
+    <t>passenger LDVs by the ratio of the average price of the other vehicle to the average price of a passenger LDV.</t>
+  </si>
+  <si>
+    <t>We estimate embedded carbon in vehicle types other than passenger LDVs by scaling the embedded carbon in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1708,7 +1891,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1742,6 +1925,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6"/>
@@ -2051,27 +2241,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>455</v>
       </c>
@@ -2079,185 +2269,337 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>495</v>
+      </c>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>492</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>495</v>
-      </c>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>496</v>
-      </c>
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="67" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="68" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="69" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B71" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="72" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="B72" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="73" spans="1:2" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="B40" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="B41" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2607,7 @@
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B16" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B23" r:id="rId4" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf"/>
+    <hyperlink ref="B49" r:id="rId4" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2278,14 +2620,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2638,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2649,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2660,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2671,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2682,7 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2693,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2362,7 +2704,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2715,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2384,7 +2726,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2737,7 @@
         <v>131175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2406,7 +2748,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2759,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2428,7 +2770,7 @@
         <v>127516</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +2781,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2792,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +2803,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2814,7 @@
         <v>128530</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2483,7 +2825,7 @@
         <v>132698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2494,7 +2836,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2505,7 +2847,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2516,7 +2858,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2527,7 +2869,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2538,7 +2880,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2549,7 +2891,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2902,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2571,7 +2913,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2582,7 +2924,7 @@
         <v>128149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2593,7 +2935,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2604,7 +2946,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2615,7 +2957,7 @@
         <v>138800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2626,7 +2968,7 @@
         <v>124167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2637,7 +2979,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2990,7 @@
         <v>173500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2659,7 +3001,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +3012,7 @@
         <v>124791</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2681,7 +3023,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2692,7 +3034,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2703,7 +3045,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2714,7 +3056,7 @@
         <v>125046</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2725,7 +3067,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2736,7 +3078,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2747,7 +3089,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2758,7 +3100,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2769,7 +3111,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -2780,7 +3122,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2791,7 +3133,7 @@
         <v>144900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2802,7 +3144,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2813,7 +3155,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2824,7 +3166,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2835,7 +3177,7 @@
         <v>144750</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2846,7 +3188,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2857,7 +3199,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2868,7 +3210,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2879,7 +3221,7 @@
         <v>134675</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2890,7 +3232,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2901,7 +3243,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2912,7 +3254,7 @@
         <v>112520</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -2923,7 +3265,7 @@
         <v>129950</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2934,7 +3276,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2945,7 +3287,7 @@
         <v>126576</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2956,7 +3298,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2967,7 +3309,7 @@
         <v>132700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2978,7 +3320,7 @@
         <v>121850</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -2989,7 +3331,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -3000,7 +3342,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -3011,7 +3353,7 @@
         <v>118900</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3022,7 +3364,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3375,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3044,7 +3386,7 @@
         <v>120874</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -3055,7 +3397,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -3066,7 +3408,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3077,7 +3419,7 @@
         <v>140759</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3088,7 +3430,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +3441,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3110,7 +3452,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -3121,7 +3463,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3132,7 +3474,7 @@
         <v>137281</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -3143,7 +3485,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -3154,7 +3496,7 @@
         <v>133450</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3165,7 +3507,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -3176,7 +3518,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -3187,7 +3529,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3198,7 +3540,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -3209,7 +3551,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3220,7 +3562,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -3231,7 +3573,7 @@
         <v>126948</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -3242,7 +3584,7 @@
         <v>128950</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -3253,7 +3595,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3264,7 +3606,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -3275,7 +3617,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3286,7 +3628,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -3297,7 +3639,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3308,7 +3650,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -3319,7 +3661,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -3330,7 +3672,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -3341,7 +3683,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -3352,7 +3694,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -3363,7 +3705,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -3374,7 +3716,7 @@
         <v>142008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -3385,7 +3727,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -3396,7 +3738,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -3407,7 +3749,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -3418,7 +3760,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -3429,7 +3771,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -3440,7 +3782,7 @@
         <v>140060</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -3451,7 +3793,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -3462,7 +3804,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3473,7 +3815,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -3484,7 +3826,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -3495,7 +3837,7 @@
         <v>139932</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -3506,7 +3848,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -3517,7 +3859,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>135</v>
       </c>
@@ -3528,7 +3870,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -3539,7 +3881,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -3550,7 +3892,7 @@
         <v>143314</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -3561,7 +3903,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -3572,7 +3914,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -3583,7 +3925,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -3594,7 +3936,7 @@
         <v>144214</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3605,7 +3947,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -3616,7 +3958,7 @@
         <v>133745</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -3627,7 +3969,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -3638,7 +3980,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -3649,7 +3991,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -3660,7 +4002,7 @@
         <v>152980</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -3671,7 +4013,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>150</v>
       </c>
@@ -3682,7 +4024,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -3693,7 +4035,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -3704,7 +4046,7 @@
         <v>130086</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3715,7 +4057,7 @@
         <v>128295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -3726,7 +4068,7 @@
         <v>128397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3737,7 +4079,7 @@
         <v>130746</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
@@ -3748,7 +4090,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
@@ -3759,7 +4101,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -3770,7 +4112,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -3781,7 +4123,7 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -3792,7 +4134,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -3803,7 +4145,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -3814,7 +4156,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -3825,7 +4167,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -3836,7 +4178,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -3847,7 +4189,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -3858,7 +4200,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -3869,7 +4211,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -3880,7 +4222,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
@@ -3891,7 +4233,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -3902,7 +4244,7 @@
         <v>127078</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -3913,7 +4255,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -3924,7 +4266,7 @@
         <v>117149</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -3935,7 +4277,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -3946,7 +4288,7 @@
         <v>136219</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -3957,7 +4299,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -3968,7 +4310,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -3979,7 +4321,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -3990,7 +4332,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -4001,7 +4343,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -4012,7 +4354,7 @@
         <v>148677</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -4023,7 +4365,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -4034,7 +4376,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>185</v>
       </c>
@@ -4045,7 +4387,7 @@
         <v>131683</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -4056,7 +4398,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -4067,7 +4409,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -4078,7 +4420,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -4089,7 +4431,7 @@
         <v>130881</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -4100,7 +4442,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -4111,7 +4453,7 @@
         <v>156800</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -4122,7 +4464,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -4133,7 +4475,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>194</v>
       </c>
@@ -4144,7 +4486,7 @@
         <v>129712</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>195</v>
       </c>
@@ -4155,7 +4497,7 @@
         <v>136345</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>196</v>
       </c>
@@ -4166,7 +4508,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -4177,7 +4519,7 @@
         <v>127111</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -4188,7 +4530,7 @@
         <v>137454</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -4199,7 +4541,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -4210,7 +4552,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>116</v>
       </c>
@@ -4221,7 +4563,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>202</v>
       </c>
@@ -4232,7 +4574,7 @@
         <v>130256</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -4243,7 +4585,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -4254,7 +4596,7 @@
         <v>133409</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -4265,7 +4607,7 @@
         <v>138957</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -4276,7 +4618,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -4287,7 +4629,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -4298,7 +4640,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -4309,7 +4651,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -4320,7 +4662,7 @@
         <v>133801</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -4331,7 +4673,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -4342,7 +4684,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -4353,7 +4695,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -4364,7 +4706,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -4375,7 +4717,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -4386,7 +4728,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -4397,7 +4739,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -4408,7 +4750,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -4419,7 +4761,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -4430,7 +4772,7 @@
         <v>135500</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -4441,7 +4783,7 @@
         <v>149592</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -4452,7 +4794,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -4463,7 +4805,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -4474,7 +4816,7 @@
         <v>131450</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -4485,7 +4827,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -4496,7 +4838,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -4507,7 +4849,7 @@
         <v>131369</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -4518,7 +4860,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -4529,7 +4871,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -4540,7 +4882,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -4551,7 +4893,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -4562,7 +4904,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -4573,7 +4915,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -4584,7 +4926,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -4595,7 +4937,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -4606,7 +4948,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -4617,7 +4959,7 @@
         <v>132551</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -4628,7 +4970,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -4639,7 +4981,7 @@
         <v>147838</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -4650,7 +4992,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -4661,7 +5003,7 @@
         <v>127513</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -4672,7 +5014,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -4683,7 +5025,7 @@
         <v>151734</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -4694,7 +5036,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>246</v>
       </c>
@@ -4705,7 +5047,7 @@
         <v>174105</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -4716,7 +5058,7 @@
         <v>140253</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -4727,7 +5069,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -4738,7 +5080,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>250</v>
       </c>
@@ -4749,7 +5091,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>251</v>
       </c>
@@ -4760,7 +5102,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -4771,7 +5113,7 @@
         <v>207200</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -4782,7 +5124,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>254</v>
       </c>
@@ -4793,7 +5135,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -4804,7 +5146,7 @@
         <v>124526</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -4815,7 +5157,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -4826,7 +5168,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>257</v>
       </c>
@@ -4837,7 +5179,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4848,7 +5190,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>259</v>
       </c>
@@ -4859,7 +5201,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4870,7 +5212,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>261</v>
       </c>
@@ -4881,7 +5223,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -4892,7 +5234,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -4903,7 +5245,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -4914,7 +5256,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -4925,7 +5267,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>265</v>
       </c>
@@ -4936,7 +5278,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -4947,7 +5289,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -4958,7 +5300,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -4969,7 +5311,7 @@
         <v>127740</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>269</v>
       </c>
@@ -4980,7 +5322,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>270</v>
       </c>
@@ -4991,7 +5333,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>271</v>
       </c>
@@ -5014,14 +5356,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -5032,7 +5374,7 @@
         <v>142405</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -5043,7 +5385,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -5054,7 +5396,7 @@
         <v>125950</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -5065,7 +5407,7 @@
         <v>142988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -5076,7 +5418,7 @@
         <v>136835</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -5087,7 +5429,7 @@
         <v>145650</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -5098,7 +5440,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -5109,7 +5451,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -5120,7 +5462,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -5131,7 +5473,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -5142,7 +5484,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -5153,7 +5495,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -5164,7 +5506,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -5175,7 +5517,7 @@
         <v>148275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -5186,7 +5528,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -5197,7 +5539,7 @@
         <v>140608</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>295</v>
       </c>
@@ -5208,7 +5550,7 @@
         <v>165536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -5219,7 +5561,7 @@
         <v>151764</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>297</v>
       </c>
@@ -5230,7 +5572,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>298</v>
       </c>
@@ -5241,7 +5583,7 @@
         <v>165718</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -5252,7 +5594,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -5263,7 +5605,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -5274,7 +5616,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -5285,7 +5627,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>303</v>
       </c>
@@ -5296,7 +5638,7 @@
         <v>141750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -5307,7 +5649,7 @@
         <v>145934</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -5318,7 +5660,7 @@
         <v>141150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>306</v>
       </c>
@@ -5329,7 +5671,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>307</v>
       </c>
@@ -5340,7 +5682,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -5351,7 +5693,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -5362,7 +5704,7 @@
         <v>140500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -5373,7 +5715,7 @@
         <v>144775</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>311</v>
       </c>
@@ -5384,7 +5726,7 @@
         <v>147555</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>312</v>
       </c>
@@ -5395,7 +5737,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5406,7 +5748,7 @@
         <v>131211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -5417,7 +5759,7 @@
         <v>147500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -5428,7 +5770,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -5439,7 +5781,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -5450,7 +5792,7 @@
         <v>155900</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>318</v>
       </c>
@@ -5461,7 +5803,7 @@
         <v>137500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>319</v>
       </c>
@@ -5472,7 +5814,7 @@
         <v>136483</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -5483,7 +5825,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>321</v>
       </c>
@@ -5494,7 +5836,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>322</v>
       </c>
@@ -5505,7 +5847,7 @@
         <v>127995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>323</v>
       </c>
@@ -5516,7 +5858,7 @@
         <v>145385</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>324</v>
       </c>
@@ -5527,7 +5869,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -5538,7 +5880,7 @@
         <v>140460</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>326</v>
       </c>
@@ -5549,7 +5891,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>327</v>
       </c>
@@ -5560,7 +5902,7 @@
         <v>137468</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -5571,7 +5913,7 @@
         <v>148351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -5582,7 +5924,7 @@
         <v>153543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -5593,7 +5935,7 @@
         <v>147429</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>331</v>
       </c>
@@ -5604,7 +5946,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -5615,7 +5957,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>333</v>
       </c>
@@ -5626,7 +5968,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -5637,7 +5979,7 @@
         <v>141245</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>335</v>
       </c>
@@ -5648,7 +5990,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>332</v>
       </c>
@@ -5659,7 +6001,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -5670,7 +6012,7 @@
         <v>146800</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>337</v>
       </c>
@@ -5681,7 +6023,7 @@
         <v>141898</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>338</v>
       </c>
@@ -5692,7 +6034,7 @@
         <v>147780</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>339</v>
       </c>
@@ -5703,7 +6045,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>340</v>
       </c>
@@ -5714,7 +6056,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>341</v>
       </c>
@@ -5725,7 +6067,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>342</v>
       </c>
@@ -5736,7 +6078,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>343</v>
       </c>
@@ -5747,7 +6089,7 @@
         <v>149391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>344</v>
       </c>
@@ -5758,7 +6100,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>345</v>
       </c>
@@ -5769,7 +6111,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>320</v>
       </c>
@@ -5780,7 +6122,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>321</v>
       </c>
@@ -5791,7 +6133,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -5802,7 +6144,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -5813,7 +6155,7 @@
         <v>149285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -5824,7 +6166,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -5835,7 +6177,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>332</v>
       </c>
@@ -5846,7 +6188,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -5857,7 +6199,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>351</v>
       </c>
@@ -5868,7 +6210,7 @@
         <v>153814</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>352</v>
       </c>
@@ -5879,7 +6221,7 @@
         <v>148613</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -5890,7 +6232,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>354</v>
       </c>
@@ -5901,7 +6243,7 @@
         <v>134900</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>355</v>
       </c>
@@ -5912,7 +6254,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>356</v>
       </c>
@@ -5923,7 +6265,7 @@
         <v>151674</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -5934,7 +6276,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>358</v>
       </c>
@@ -5945,7 +6287,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -5956,7 +6298,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>360</v>
       </c>
@@ -5967,7 +6309,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>332</v>
       </c>
@@ -5978,7 +6320,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -5989,7 +6331,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>362</v>
       </c>
@@ -6000,7 +6342,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>339</v>
       </c>
@@ -6011,7 +6353,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>363</v>
       </c>
@@ -6022,7 +6364,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>364</v>
       </c>
@@ -6033,7 +6375,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>365</v>
       </c>
@@ -6044,7 +6386,7 @@
         <v>132993</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>366</v>
       </c>
@@ -6055,7 +6397,7 @@
         <v>150929</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>367</v>
       </c>
@@ -6066,7 +6408,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>344</v>
       </c>
@@ -6077,7 +6419,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>368</v>
       </c>
@@ -6088,7 +6430,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>369</v>
       </c>
@@ -6099,7 +6441,7 @@
         <v>136908</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -6110,7 +6452,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>370</v>
       </c>
@@ -6121,7 +6463,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -6132,7 +6474,7 @@
         <v>147311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -6143,7 +6485,7 @@
         <v>151500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>373</v>
       </c>
@@ -6154,7 +6496,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>374</v>
       </c>
@@ -6165,7 +6507,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -6176,7 +6518,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>375</v>
       </c>
@@ -6187,7 +6529,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>376</v>
       </c>
@@ -6198,7 +6540,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>377</v>
       </c>
@@ -6209,7 +6551,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>378</v>
       </c>
@@ -6220,7 +6562,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>379</v>
       </c>
@@ -6231,7 +6573,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>380</v>
       </c>
@@ -6242,7 +6584,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>381</v>
       </c>
@@ -6253,7 +6595,7 @@
         <v>143529</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>339</v>
       </c>
@@ -6264,7 +6606,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>342</v>
       </c>
@@ -6275,7 +6617,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>382</v>
       </c>
@@ -6286,7 +6628,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>383</v>
       </c>
@@ -6297,7 +6639,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>346</v>
       </c>
@@ -6308,7 +6650,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>384</v>
       </c>
@@ -6319,7 +6661,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>385</v>
       </c>
@@ -6330,7 +6672,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>342</v>
       </c>
@@ -6341,7 +6683,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>386</v>
       </c>
@@ -6352,7 +6694,7 @@
         <v>148900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -6363,7 +6705,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -6374,7 +6716,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>387</v>
       </c>
@@ -6385,7 +6727,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>388</v>
       </c>
@@ -6396,7 +6738,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -6407,7 +6749,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>389</v>
       </c>
@@ -6418,7 +6760,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>390</v>
       </c>
@@ -6429,7 +6771,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>391</v>
       </c>
@@ -6440,7 +6782,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -6451,7 +6793,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>393</v>
       </c>
@@ -6462,7 +6804,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>394</v>
       </c>
@@ -6473,7 +6815,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>395</v>
       </c>
@@ -6484,7 +6826,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>396</v>
       </c>
@@ -6495,7 +6837,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>397</v>
       </c>
@@ -6506,7 +6848,7 @@
         <v>136581</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>344</v>
       </c>
@@ -6517,7 +6859,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>339</v>
       </c>
@@ -6528,7 +6870,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>346</v>
       </c>
@@ -6539,7 +6881,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>398</v>
       </c>
@@ -6550,7 +6892,7 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -6561,7 +6903,7 @@
         <v>156236</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>400</v>
       </c>
@@ -6572,7 +6914,7 @@
         <v>151299</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>401</v>
       </c>
@@ -6583,7 +6925,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>402</v>
       </c>
@@ -6594,7 +6936,7 @@
         <v>143100</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>403</v>
       </c>
@@ -6605,7 +6947,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>353</v>
       </c>
@@ -6616,7 +6958,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>342</v>
       </c>
@@ -6627,7 +6969,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>342</v>
       </c>
@@ -6638,7 +6980,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>320</v>
       </c>
@@ -6649,7 +6991,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>353</v>
       </c>
@@ -6660,7 +7002,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>404</v>
       </c>
@@ -6671,7 +7013,7 @@
         <v>141690</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>401</v>
       </c>
@@ -6682,7 +7024,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>346</v>
       </c>
@@ -6693,7 +7035,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -6704,7 +7046,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>406</v>
       </c>
@@ -6715,7 +7057,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>407</v>
       </c>
@@ -6726,7 +7068,7 @@
         <v>136196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -6737,7 +7079,7 @@
         <v>144850</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>409</v>
       </c>
@@ -6748,7 +7090,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>410</v>
       </c>
@@ -6759,7 +7101,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>411</v>
       </c>
@@ -6770,7 +7112,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>412</v>
       </c>
@@ -6781,7 +7123,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>413</v>
       </c>
@@ -6792,7 +7134,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -6803,7 +7145,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -6814,7 +7156,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>414</v>
       </c>
@@ -6825,7 +7167,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>415</v>
       </c>
@@ -6836,7 +7178,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -6847,7 +7189,7 @@
         <v>141034</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>417</v>
       </c>
@@ -6858,7 +7200,7 @@
         <v>145900</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>418</v>
       </c>
@@ -6869,7 +7211,7 @@
         <v>148191</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>346</v>
       </c>
@@ -6880,7 +7222,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>419</v>
       </c>
@@ -6891,7 +7233,7 @@
         <v>150499</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>320</v>
       </c>
@@ -6902,7 +7244,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -6913,7 +7255,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>420</v>
       </c>
@@ -6924,7 +7266,7 @@
         <v>152753</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>332</v>
       </c>
@@ -6935,7 +7277,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>342</v>
       </c>
@@ -6946,7 +7288,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>421</v>
       </c>
@@ -6957,7 +7299,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>422</v>
       </c>
@@ -6968,7 +7310,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>423</v>
       </c>
@@ -6979,7 +7321,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>424</v>
       </c>
@@ -6990,7 +7332,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>425</v>
       </c>
@@ -7001,7 +7343,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>426</v>
       </c>
@@ -7012,7 +7354,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>427</v>
       </c>
@@ -7023,7 +7365,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>428</v>
       </c>
@@ -7034,7 +7376,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>429</v>
       </c>
@@ -7045,7 +7387,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>430</v>
       </c>
@@ -7056,7 +7398,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>431</v>
       </c>
@@ -7067,7 +7409,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>432</v>
       </c>
@@ -7078,7 +7420,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>433</v>
       </c>
@@ -7089,7 +7431,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -7100,7 +7442,7 @@
         <v>140990</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>339</v>
       </c>
@@ -7111,7 +7453,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>435</v>
       </c>
@@ -7122,7 +7464,7 @@
         <v>146850</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>436</v>
       </c>
@@ -7133,7 +7475,7 @@
         <v>142667</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>437</v>
       </c>
@@ -7144,7 +7486,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>438</v>
       </c>
@@ -7155,7 +7497,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>439</v>
       </c>
@@ -7166,7 +7508,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>440</v>
       </c>
@@ -7177,7 +7519,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>441</v>
       </c>
@@ -7188,7 +7530,7 @@
         <v>142888</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>442</v>
       </c>
@@ -7199,7 +7541,7 @@
         <v>154160</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>443</v>
       </c>
@@ -7210,7 +7552,7 @@
         <v>148945</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>444</v>
       </c>
@@ -7221,7 +7563,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>339</v>
       </c>
@@ -7232,7 +7574,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>332</v>
       </c>
@@ -7243,7 +7585,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>445</v>
       </c>
@@ -7254,7 +7596,7 @@
         <v>148658</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>446</v>
       </c>
@@ -7265,7 +7607,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>447</v>
       </c>
@@ -7276,7 +7618,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>448</v>
       </c>
@@ -7287,7 +7629,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>353</v>
       </c>
@@ -7298,7 +7640,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>449</v>
       </c>
@@ -7309,7 +7651,7 @@
         <v>143415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -7320,7 +7662,7 @@
         <v>143625</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>451</v>
       </c>
@@ -7331,7 +7673,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>346</v>
       </c>
@@ -7342,7 +7684,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>452</v>
       </c>
@@ -7353,7 +7695,7 @@
         <v>144910</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>453</v>
       </c>
@@ -7364,7 +7706,7 @@
         <v>153260</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>454</v>
       </c>
@@ -7382,98 +7724,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>470</v>
+      <c r="A1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="10">
-        <f>23186*About!A40</f>
-        <v>24461.23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <f>AVERAGE('Conventional Daycab Trucks'!C1:C247,'Conventional Sleeper Trucks'!C1:C214)*About!A41</f>
-        <v>132928.01486984815</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="A4" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="B5" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="B6" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B7" s="1">
+        <v>298000000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>149000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="1">
+        <v>81000000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="1">
+        <v>88000000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="1">
+        <v>209000000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7482,160 +7861,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B3">
-        <v>5.04</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>543</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
-      </c>
-      <c r="D3">
-        <v>0.51</v>
-      </c>
-      <c r="E3">
-        <v>5.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>18.18</v>
-      </c>
-      <c r="H3">
-        <v>0.02</v>
-      </c>
-      <c r="I3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B4">
-        <v>6.11</v>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" t="s">
+        <v>544</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
-      </c>
-      <c r="D4">
-        <v>0.35</v>
-      </c>
-      <c r="E4">
-        <v>3.44</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>12.47</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-      <c r="I4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B5">
-        <v>6.61</v>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5" t="s">
+        <v>545</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
-      </c>
-      <c r="D5">
-        <v>0.18</v>
-      </c>
-      <c r="E5">
-        <v>1.81</v>
-      </c>
-      <c r="F5">
-        <v>4.57</v>
-      </c>
-      <c r="G5">
-        <v>6.55</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6">
-        <v>9.56</v>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>546</v>
       </c>
       <c r="C6">
-        <v>1.4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>13.19</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.27</v>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C12">
+        <v>5500</v>
       </c>
     </row>
   </sheetData>
@@ -7652,11 +8011,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7674,11 +8033,279 @@
       <c r="A2" t="s">
         <v>471</v>
       </c>
+      <c r="B2" s="10">
+        <f>23186*About!A71</f>
+        <v>24461.23</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="10">
+        <f>486968*About!A73</f>
+        <v>480637.41599999997</v>
+      </c>
+      <c r="C3" s="10">
+        <f>AVERAGE('Conventional Daycab Trucks'!C1:C247,'Conventional Sleeper Trucks'!C1:C214)*About!A72</f>
+        <v>132928.01486984815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="10">
+        <f>AVERAGE('Passenger Aircraft'!C5:C10)</f>
+        <v>64833333.333333336</v>
+      </c>
+      <c r="C4" s="10">
+        <f>B4</f>
+        <v>64833333.333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="10">
+        <f>AVERAGE(Motorbikes!C3:C12)</f>
+        <v>8980</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3">
+        <v>5.04</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>0.51</v>
+      </c>
+      <c r="E3">
+        <v>5.01</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>18.18</v>
+      </c>
+      <c r="H3">
+        <v>0.02</v>
+      </c>
+      <c r="I3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4">
+        <v>6.11</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+      <c r="D4">
+        <v>0.35</v>
+      </c>
+      <c r="E4">
+        <v>3.44</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>12.47</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+      <c r="I4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5">
+        <v>6.61</v>
+      </c>
+      <c r="C5">
+        <v>1.4</v>
+      </c>
+      <c r="D5">
+        <v>0.18</v>
+      </c>
+      <c r="E5">
+        <v>1.81</v>
+      </c>
+      <c r="F5">
+        <v>4.57</v>
+      </c>
+      <c r="G5">
+        <v>6.55</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6">
+        <v>9.56</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>13.19</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
       <c r="B2" s="11">
         <f>SUM('Table 8-8'!B3:C3)</f>
         <v>6.4399999999999995</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C2/'VPaEC-BAVP'!$B$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -7687,10 +8314,11 @@
         <v>472</v>
       </c>
       <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <f>B2*('VPaEC-BAVP'!C3/'VPaEC-BAVP'!B2)</f>
+        <f>$B$2*('VPaEC-BAVP'!B3/'VPaEC-BAVP'!$B$2)</f>
+        <v>126.53921977921794</v>
+      </c>
+      <c r="C3" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C3/'VPaEC-BAVP'!$B$2)</f>
         <v>34.996458304092727</v>
       </c>
     </row>
@@ -7699,10 +8327,12 @@
         <v>473</v>
       </c>
       <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <f>$B$2*('VPaEC-BAVP'!B4/'VPaEC-BAVP'!$B$2)</f>
+        <v>17068.915449740944</v>
+      </c>
+      <c r="C4" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C4/'VPaEC-BAVP'!$B$2)</f>
+        <v>17068.915449740944</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +8340,12 @@
         <v>474</v>
       </c>
       <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <f>$B$2*('VPaEC-BAVP'!B5/'VPaEC-BAVP'!$B$2)</f>
+        <v>658.18440037561481</v>
+      </c>
+      <c r="C5" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C5/'VPaEC-BAVP'!$B$2)</f>
+        <v>658.18440037561481</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,9 +8353,11 @@
         <v>475</v>
       </c>
       <c r="B6" s="10">
+        <f>$B$2*('VPaEC-BAVP'!B6/'VPaEC-BAVP'!$B$2)</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C6/'VPaEC-BAVP'!$B$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -7731,10 +8365,12 @@
       <c r="A7" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="21">
+        <f>$B$2*('VPaEC-BAVP'!B7/'VPaEC-BAVP'!$B$2)</f>
+        <v>2.3641983661492083</v>
+      </c>
+      <c r="C7" s="10">
+        <f>$B$2*('VPaEC-BAVP'!C7/'VPaEC-BAVP'!$B$2)</f>
         <v>0</v>
       </c>
     </row>
